--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9404</v>
+        <v>9405</v>
       </c>
       <c r="D11" t="n">
         <v>1870</v>
       </c>
       <c r="E11" t="n">
-        <v>34868826</v>
+        <v>34871009</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16669,13 +16669,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D319" t="n">
         <v>58</v>
       </c>
       <c r="E319" t="n">
-        <v>9516888</v>
+        <v>9581602</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>20987</v>
+        <v>20988</v>
       </c>
       <c r="D330" t="n">
         <v>4303</v>
       </c>
       <c r="E330" t="n">
-        <v>75017034</v>
+        <v>75018497</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -21412,13 +21412,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D412" t="n">
         <v>297</v>
       </c>
       <c r="E412" t="n">
-        <v>28463817</v>
+        <v>28479447</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163659</v>
+        <v>163664</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712062516</v>
+        <v>712099276</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94650</v>
+        <v>94654</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653574053</v>
+        <v>653626297</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53200</v>
+        <v>53201</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117936707</v>
+        <v>117940232</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -24319,13 +24319,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>16596</v>
+        <v>16597</v>
       </c>
       <c r="D469" t="n">
         <v>3050</v>
       </c>
       <c r="E469" t="n">
-        <v>90347466</v>
+        <v>90371847</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55288845</v>
+        <v>55338988</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -25492,13 +25492,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="D492" t="n">
         <v>391</v>
       </c>
       <c r="E492" t="n">
-        <v>43234591</v>
+        <v>43286206</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D503" t="n">
         <v>71</v>
       </c>
       <c r="E503" t="n">
-        <v>16698678</v>
+        <v>16733167</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76804</v>
+        <v>76806</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>291964126</v>
+        <v>291968265</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="D836" t="n">
         <v>616</v>
       </c>
       <c r="E836" t="n">
-        <v>27347534</v>
+        <v>27354474</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="D53" t="n">
         <v>594</v>
       </c>
       <c r="E53" t="n">
-        <v>75312901</v>
+        <v>75345725</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D55" t="n">
         <v>35</v>
       </c>
       <c r="E55" t="n">
-        <v>20700255</v>
+        <v>20761685</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -9529,13 +9529,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9342</v>
+        <v>9343</v>
       </c>
       <c r="D179" t="n">
         <v>1756</v>
       </c>
       <c r="E179" t="n">
-        <v>34389686</v>
+        <v>34393264</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -12640,13 +12640,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D240" t="n">
         <v>352</v>
       </c>
       <c r="E240" t="n">
-        <v>15121967</v>
+        <v>15131967</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -17485,13 +17485,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D335" t="n">
         <v>14</v>
       </c>
       <c r="E335" t="n">
-        <v>6169203</v>
+        <v>6177168</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15734</v>
+        <v>15735</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24684987</v>
+        <v>24685528</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163664</v>
+        <v>163669</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712099276</v>
+        <v>712149785</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94654</v>
+        <v>94659</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653626297</v>
+        <v>653649486</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50650</v>
+        <v>50651</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>542769227</v>
+        <v>542777727</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15717</v>
+        <v>15719</v>
       </c>
       <c r="D466" t="n">
         <v>2329</v>
       </c>
       <c r="E466" t="n">
-        <v>28480645</v>
+        <v>28484553</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55338988</v>
+        <v>55343391</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9113119</v>
+        <v>9118147</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D513" t="n">
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>2472196</v>
+        <v>2534864</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -31561,13 +31561,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>22933</v>
+        <v>22934</v>
       </c>
       <c r="D611" t="n">
         <v>4582</v>
       </c>
       <c r="E611" t="n">
-        <v>79311709</v>
+        <v>79322915</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31714,13 +31714,13 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>8882</v>
+        <v>8884</v>
       </c>
       <c r="D614" t="n">
         <v>1566</v>
       </c>
       <c r="E614" t="n">
-        <v>74794273</v>
+        <v>74810670</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -41914,13 +41914,13 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>8917</v>
+        <v>8919</v>
       </c>
       <c r="D814" t="n">
         <v>1273</v>
       </c>
       <c r="E814" t="n">
-        <v>84939925</v>
+        <v>85079716</v>
       </c>
       <c r="F814" t="inlineStr">
         <is>
@@ -42067,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D817" t="n">
         <v>44</v>
       </c>
       <c r="E817" t="n">
-        <v>20687492</v>
+        <v>20729536</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
